--- a/static/reports/report_year_level.xlsx
+++ b/static/reports/report_year_level.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -472,36 +472,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4th year</t>
+          <t>4th Year</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5th Year</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
         <v>2</v>
       </c>
     </row>
